--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/reason_list.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/reason_list.xlsx
@@ -163,7 +163,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -245,7 +245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,6 +256,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -278,7 +286,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,24 +310,24 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="n">
@@ -328,19 +336,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="n">
@@ -349,19 +357,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="n">
@@ -370,19 +378,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="n">
@@ -391,19 +399,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="n">
@@ -412,19 +420,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="1" t="n">
@@ -433,19 +441,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="1" t="n">
@@ -454,19 +462,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="1" t="n">
@@ -475,19 +483,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="1" t="n">
@@ -496,19 +504,19 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="1" t="n">
@@ -517,19 +525,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="n">
@@ -538,19 +546,19 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="1" t="n">
@@ -559,19 +567,19 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="1" t="n">
@@ -580,19 +588,19 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="1" t="n">
@@ -601,19 +609,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="1" t="n">
@@ -622,19 +630,19 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="1" t="n">
@@ -643,19 +651,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="1" t="n">
@@ -664,19 +672,19 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="1" t="n">

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/reason_list.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/reason_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">CLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">GPM</t>
@@ -286,7 +289,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -330,9 +333,8 @@
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,20 +342,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,20 +362,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,20 +382,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,20 +402,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,20 +422,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,20 +442,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,20 +462,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,209 +482,199 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
